--- a/medicine/Enfance/Béatrice_Poncelet/Béatrice_Poncelet.xlsx
+++ b/medicine/Enfance/Béatrice_Poncelet/Béatrice_Poncelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Poncelet</t>
+          <t>Béatrice_Poncelet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Poncelet, née le 14 avril 1947 à Neuchâtel, est une autrice et illustratrice suisse de littérature jeunesse et adulte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Poncelet</t>
+          <t>Béatrice_Poncelet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Béatrice Poncelet a étudié à l'École des arts décoratifs de Genève, afin d'apprendre la gravure et la tapisserie[1]. Elle a enseigné le cinéma d'animation à l'INA (Paris), et a créé et dirigé un atelier enfants-adultes d'expression graphique à Thorigny-sur-Marne[2].
-Cette formation variée se traduit dans ses ouvrages par l'intégration de multiples techniques qui créent une œuvre originale et identifiable, constituant pour Sophie Van der Linden un « non style »[3]. Les livres de Béatrice Poncelet se démarquent par la variété de leurs formats, et les choix calligraphiques et d'utilisation de l'espace de la page qu'elle y opère[2]. Dans la plupart de ses albums, le texte est écrit à la première personne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béatrice Poncelet a étudié à l'École des arts décoratifs de Genève, afin d'apprendre la gravure et la tapisserie. Elle a enseigné le cinéma d'animation à l'INA (Paris), et a créé et dirigé un atelier enfants-adultes d'expression graphique à Thorigny-sur-Marne.
+Cette formation variée se traduit dans ses ouvrages par l'intégration de multiples techniques qui créent une œuvre originale et identifiable, constituant pour Sophie Van der Linden un « non style ». Les livres de Béatrice Poncelet se démarquent par la variété de leurs formats, et les choix calligraphiques et d'utilisation de l'espace de la page qu'elle y opère. Dans la plupart de ses albums, le texte est écrit à la première personne.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Poncelet</t>
+          <t>Béatrice_Poncelet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Je reviendrai le dimanche 39, Paris, Albin Michel, 1983
 Je pars à la guerre, je serai là pour le goûter, Paris, Centurion, 1985
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Poncelet</t>
+          <t>Béatrice_Poncelet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,10 +604,12 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1986 : (international) « Honour List »[4] de l'IBBY, Catégorie Auteur, pour Je pars à la guerre, je serai là pour le goûter, qu'elle a également illustré.
-1987 :  « Mention d'Honneur » de la Biennale d'illustration de Bratislava[5] pour Je reviendrai le dimanche 39, qu'elle a écrit et illustré</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1986 : (international) « Honour List » de l'IBBY, Catégorie Auteur, pour Je pars à la guerre, je serai là pour le goûter, qu'elle a également illustré.
+1987 :  « Mention d'Honneur » de la Biennale d'illustration de Bratislava pour Je reviendrai le dimanche 39, qu'elle a écrit et illustré</t>
         </is>
       </c>
     </row>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Poncelet</t>
+          <t>Béatrice_Poncelet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,10 +637,12 @@
           <t>Expositions récentes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>« Vois... Lis... Voilà ! », Béatrice Poncelet[6],[7], Musée de l'illustration jeunesse de Moulins, France, janvier - juin 2018.
-« Petite voleuse de mémoires ! », Béatrice Poncelet[8], Médiathèque Françoise Sagan de la Ville de Paris, France, 25 février - 30 mai 2020</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Vois... Lis... Voilà ! », Béatrice Poncelet Musée de l'illustration jeunesse de Moulins, France, janvier - juin 2018.
+« Petite voleuse de mémoires ! », Béatrice Poncelet, Médiathèque Françoise Sagan de la Ville de Paris, France, 25 février - 30 mai 2020</t>
         </is>
       </c>
     </row>
